--- a/CASE_E_output_B_EXTRA.xlsx
+++ b/CASE_E_output_B_EXTRA.xlsx
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
         <v>4</v>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
         <v>3</v>
@@ -783,7 +783,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>3</v>
@@ -1004,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>4</v>
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA6" t="n">
         <v>4</v>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z10" t="n">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>1</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
@@ -1984,25 +1984,25 @@
         <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>4</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2378,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W21" t="n">
         <v>4</v>
@@ -2399,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="AC21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
         <v>4</v>
@@ -2742,7 +2742,7 @@
         <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2818,7 +2818,7 @@
         <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -3052,13 +3052,13 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="Z29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA29" t="n">
         <v>1</v>
@@ -3258,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -3340,13 +3340,13 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
         <v>4</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20140</v>
+        <v>19893</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,18 +3720,18 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>-1</v>
@@ -3764,18 +3764,18 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>-1</v>
@@ -3783,24 +3783,24 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
         <v>6</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8</v>
-      </c>
       <c r="F14" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -3808,11 +3808,11 @@
         <v>6</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3827,14 +3827,14 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3852,11 +3852,11 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3871,14 +3871,14 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3896,21 +3896,21 @@
         <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
@@ -3918,43 +3918,43 @@
         <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3962,11 +3962,11 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -3984,43 +3984,43 @@
         <v>9</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25">
@@ -4028,21 +4028,21 @@
         <v>10</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -4050,26 +4050,26 @@
         <v>10</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" t="n">
         <v>4</v>
@@ -4080,32 +4080,32 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>-1</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
         <v>3</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" t="n">
         <v>4</v>
@@ -4146,18 +4146,18 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
       </c>
       <c r="F30" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -4168,18 +4168,18 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" t="n">
         <v>3</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -4212,18 +4212,18 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
         <v>8</v>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
         <v>3</v>
@@ -4234,54 +4234,54 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
         <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F36" t="n">
         <v>-1</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -4300,18 +4300,18 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E37" t="n">
         <v>8</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="n">
         <v>3</v>
@@ -4322,18 +4322,18 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
         <v>8</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" t="n">
         <v>4</v>
@@ -4344,106 +4344,106 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
         <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F41" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="n">
-        <v>8</v>
-      </c>
       <c r="F42" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
         <v>6</v>
       </c>
-      <c r="E43" t="n">
-        <v>8</v>
-      </c>
       <c r="F43" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -4454,18 +4454,18 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
         <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B45" t="n">
         <v>3</v>
@@ -4476,84 +4476,84 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
         <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="n">
         <v>6</v>
       </c>
-      <c r="E46" t="n">
-        <v>8</v>
-      </c>
       <c r="F46" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" t="n">
         <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -4564,18 +4564,18 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
         <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
@@ -4586,32 +4586,32 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
         <v>8</v>
       </c>
       <c r="F50" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
         <v>-2</v>
@@ -4619,43 +4619,43 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
         <v>8</v>
       </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
@@ -4663,21 +4663,21 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
         <v>-1</v>
@@ -4685,73 +4685,73 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
         <v>8</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B58" t="n">
         <v>3</v>
@@ -4762,18 +4762,18 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
         <v>8</v>
       </c>
       <c r="F58" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B59" t="n">
         <v>4</v>
@@ -4784,18 +4784,18 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
         <v>6</v>
       </c>
       <c r="F59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -4806,18 +4806,18 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
         <v>8</v>
       </c>
       <c r="F60" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B61" t="n">
         <v>3</v>
@@ -4828,40 +4828,40 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
         <v>8</v>
       </c>
       <c r="F61" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
         <v>6</v>
       </c>
-      <c r="E62" t="n">
-        <v>8</v>
-      </c>
       <c r="F62" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B63" t="n">
         <v>3</v>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B64" t="n">
         <v>4</v>
@@ -4901,6 +4901,94 @@
       </c>
       <c r="F64" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>27</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>27</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>6</v>
+      </c>
+      <c r="E66" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>28</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>6</v>
+      </c>
+      <c r="E67" t="n">
+        <v>8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>28</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>6</v>
+      </c>
+      <c r="E68" t="n">
+        <v>8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
